--- a/data/trans_orig/P34E1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34E1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{423991D4-5800-4F2A-8881-FFCF6F5A2F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD37421-0CBA-4063-B56E-9759400E5C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4A2456C-F165-4831-AF8A-F3BE75D892D6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F278D432-D0DE-40B0-896F-2876A3A0D125}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="483">
   <si>
     <t>Población según el número de días que realizo actividades físicas moderadas a lo largo de los últimos 7 días en 2015 (Tasa respuesta: 26,03%)</t>
   </si>
@@ -87,28 +87,28 @@
     <t>9,15%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>1,82%</t>
@@ -117,1267 +117,1264 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,69%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
     <t>29,54%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
+    <t>11,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1900,7 +1897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE94093-6F7C-42C6-B50D-F92A71188EE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11729013-0EBD-4693-AD9F-D9FF75F699AF}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2141,13 +2138,13 @@
         <v>6700</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -2156,13 +2153,13 @@
         <v>10869</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2174,13 @@
         <v>47319</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2192,13 +2189,13 @@
         <v>20989</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -2207,13 +2204,13 @@
         <v>68309</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2225,13 @@
         <v>24321</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -2243,13 +2240,13 @@
         <v>17198</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2258,13 +2255,13 @@
         <v>41519</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2276,13 @@
         <v>59902</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -2294,13 +2291,13 @@
         <v>33878</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>91</v>
@@ -2309,13 +2306,13 @@
         <v>93780</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2327,13 @@
         <v>50905</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -2345,13 +2342,13 @@
         <v>21929</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -2360,7 +2357,7 @@
         <v>72835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>66</v>
@@ -2608,7 +2605,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -2617,13 +2614,13 @@
         <v>15145</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2635,13 @@
         <v>54236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2653,13 +2650,13 @@
         <v>20507</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -2668,13 +2665,13 @@
         <v>74744</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2686,13 @@
         <v>28811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -2704,13 +2701,13 @@
         <v>19405</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -2719,13 +2716,13 @@
         <v>48216</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2737,13 @@
         <v>82222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -2755,13 +2752,13 @@
         <v>44030</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>124</v>
@@ -2770,13 +2767,13 @@
         <v>126252</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2788,13 @@
         <v>68157</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -2806,13 +2803,13 @@
         <v>39163</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>103</v>
@@ -2821,13 +2818,13 @@
         <v>107320</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2839,13 @@
         <v>19524</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2857,13 +2854,13 @@
         <v>20985</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -2872,13 +2869,13 @@
         <v>40508</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,7 +2931,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5">
         <v>994</v>
@@ -2952,7 +2949,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2967,7 +2964,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2982,7 +2979,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,13 +2994,13 @@
         <v>18739</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -3153,10 +3150,10 @@
         <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -3165,13 +3162,13 @@
         <v>20446</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -3180,13 +3177,13 @@
         <v>35630</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3198,13 @@
         <v>72465</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>38</v>
@@ -3216,13 +3213,13 @@
         <v>38552</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>105</v>
@@ -3231,13 +3228,13 @@
         <v>111018</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3249,13 @@
         <v>50778</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>44</v>
@@ -3267,13 +3264,13 @@
         <v>46594</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>92</v>
@@ -3282,13 +3279,13 @@
         <v>97372</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3300,13 @@
         <v>24753</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -3318,13 +3315,13 @@
         <v>21567</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -3333,13 +3330,13 @@
         <v>46320</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,7 +3392,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B31" s="5">
         <v>994</v>
@@ -3413,7 +3410,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3428,7 +3425,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3443,7 +3440,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3455,13 @@
         <v>21224</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -3473,13 +3470,13 @@
         <v>10951</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="M32" s="7">
         <v>30</v>
@@ -3488,13 +3485,13 @@
         <v>32175</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3506,13 @@
         <v>7898</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -3524,13 +3521,13 @@
         <v>2786</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -3539,13 +3536,13 @@
         <v>10684</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3557,13 @@
         <v>40492</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H34" s="7">
         <v>26</v>
@@ -3575,13 +3572,13 @@
         <v>27747</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>64</v>
@@ -3590,13 +3587,13 @@
         <v>68239</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3608,13 @@
         <v>16656</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -3626,13 +3623,13 @@
         <v>9465</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M35" s="7">
         <v>25</v>
@@ -3641,13 +3638,13 @@
         <v>26121</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3659,13 @@
         <v>39125</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>121</v>
+        <v>243</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -3677,13 +3674,13 @@
         <v>29135</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="M36" s="7">
         <v>63</v>
@@ -3692,13 +3689,13 @@
         <v>68260</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3710,13 @@
         <v>31834</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H37" s="7">
         <v>37</v>
@@ -3728,13 +3725,13 @@
         <v>39102</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>255</v>
+        <v>59</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M37" s="7">
         <v>64</v>
@@ -3743,13 +3740,13 @@
         <v>70935</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3761,13 @@
         <v>24226</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H38" s="7">
         <v>12</v>
@@ -3779,13 +3776,13 @@
         <v>13458</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M38" s="7">
         <v>32</v>
@@ -3794,13 +3791,13 @@
         <v>37683</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,7 +3853,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B40" s="5">
         <v>994</v>
@@ -3874,7 +3871,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3889,7 +3886,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3904,7 +3901,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3916,13 @@
         <v>13398</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -3934,13 +3931,13 @@
         <v>12089</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="M41" s="7">
         <v>22</v>
@@ -3949,13 +3946,13 @@
         <v>25487</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>50</v>
+        <v>276</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3967,13 @@
         <v>4451</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3985,13 +3982,13 @@
         <v>3932</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>283</v>
+        <v>31</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>285</v>
+        <v>167</v>
       </c>
       <c r="M42" s="7">
         <v>7</v>
@@ -4000,13 +3997,13 @@
         <v>8383</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4018,13 @@
         <v>7703</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
@@ -4036,13 +4033,13 @@
         <v>6023</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="M43" s="7">
         <v>12</v>
@@ -4054,10 +4051,10 @@
         <v>74</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4069,13 @@
         <v>7487</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -4087,13 +4084,13 @@
         <v>5513</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M44" s="7">
         <v>12</v>
@@ -4102,13 +4099,13 @@
         <v>13001</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4120,13 @@
         <v>22624</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H45" s="7">
         <v>15</v>
@@ -4138,10 +4135,10 @@
         <v>17487</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>308</v>
@@ -4335,7 +4332,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>72</v>
+        <v>331</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4350,7 +4347,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>72</v>
+        <v>331</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -4365,7 +4362,7 @@
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4377,13 @@
         <v>10031</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H50" s="7">
         <v>7</v>
@@ -4395,13 +4392,13 @@
         <v>8242</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M50" s="7">
         <v>18</v>
@@ -4410,13 +4407,13 @@
         <v>18273</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4428,13 @@
         <v>2652</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4452,7 +4449,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>72</v>
+        <v>331</v>
       </c>
       <c r="M51" s="7">
         <v>3</v>
@@ -4461,13 +4458,13 @@
         <v>2652</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4479,13 @@
         <v>17502</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H52" s="7">
         <v>10</v>
@@ -4497,13 +4494,13 @@
         <v>10854</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>192</v>
+        <v>351</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M52" s="7">
         <v>27</v>
@@ -4512,13 +4509,13 @@
         <v>28356</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4530,13 @@
         <v>1788</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H53" s="7">
         <v>3</v>
@@ -4548,7 +4545,7 @@
         <v>3171</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>358</v>
@@ -4650,13 +4647,13 @@
         <v>25384</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>256</v>
+        <v>375</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M55" s="7">
         <v>33</v>
@@ -4665,13 +4662,13 @@
         <v>36868</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4683,13 @@
         <v>3221</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -4707,7 +4704,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>72</v>
+        <v>331</v>
       </c>
       <c r="M56" s="7">
         <v>3</v>
@@ -4716,13 +4713,13 @@
         <v>3221</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,7 +4793,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4811,7 +4808,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -4826,7 +4823,7 @@
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4838,13 @@
         <v>105051</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H59" s="7">
         <v>63</v>
@@ -4856,13 +4853,13 @@
         <v>65824</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>150</v>
+        <v>394</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M59" s="7">
         <v>161</v>
@@ -4871,13 +4868,13 @@
         <v>170875</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4889,13 @@
         <v>39866</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H60" s="7">
         <v>24</v>
@@ -4907,13 +4904,13 @@
         <v>23771</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>400</v>
+        <v>72</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M60" s="7">
         <v>60</v>
@@ -4922,13 +4919,13 @@
         <v>63637</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4940,13 @@
         <v>215632</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H61" s="7">
         <v>111</v>
@@ -4958,13 +4955,13 @@
         <v>115071</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M61" s="7">
         <v>316</v>
@@ -4973,13 +4970,13 @@
         <v>330702</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4991,13 @@
         <v>94247</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H62" s="7">
         <v>75</v>
@@ -5009,13 +5006,13 @@
         <v>75198</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>242</v>
+        <v>419</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M62" s="7">
         <v>166</v>
@@ -5024,13 +5021,13 @@
         <v>169446</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>422</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,7 +5063,7 @@
         <v>427</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>428</v>
+        <v>226</v>
       </c>
       <c r="M63" s="7">
         <v>445</v>
@@ -5075,13 +5072,13 @@
         <v>468163</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P63" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="P63" s="7" t="s">
+      <c r="Q63" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5093,13 @@
         <v>235624</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H64" s="7">
         <v>179</v>
@@ -5111,13 +5108,13 @@
         <v>190321</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K64" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M64" s="7">
         <v>397</v>
@@ -5126,13 +5123,13 @@
         <v>425945</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P64" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="P64" s="7" t="s">
+      <c r="Q64" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,10 +5144,10 @@
         <v>104034</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>441</v>
@@ -5162,13 +5159,13 @@
         <v>71711</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="L65" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M65" s="7">
         <v>165</v>
@@ -5180,10 +5177,10 @@
         <v>444</v>
       </c>
       <c r="P65" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q65" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,7 +5236,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -5261,7 +5258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024D8045-DAE6-485D-9552-12EF7E410741}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D714915-7A76-4588-A6B9-A1BB9586E0A4}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5278,7 +5275,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5385,10 +5382,10 @@
         <v>377679</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>77</v>
@@ -5400,10 +5397,10 @@
         <v>354957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>77</v>
@@ -5415,10 +5412,10 @@
         <v>732636</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>77</v>
@@ -5442,37 +5439,37 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,37 +5490,37 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,37 +5541,37 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,37 +5592,37 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,37 +5643,37 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,37 +5694,37 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,37 +5745,37 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,10 +5843,10 @@
         <v>428396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>77</v>
@@ -5861,10 +5858,10 @@
         <v>499215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>77</v>
@@ -5876,10 +5873,10 @@
         <v>927611</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>77</v>
@@ -5903,37 +5900,37 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,37 +5951,37 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,37 +6002,37 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,37 +6053,37 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,37 +6104,37 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,37 +6155,37 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,37 +6206,37 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,7 +6292,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5">
         <v>994</v>
@@ -6307,10 +6304,10 @@
         <v>557252</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>77</v>
@@ -6322,10 +6319,10 @@
         <v>610447</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>77</v>
@@ -6337,10 +6334,10 @@
         <v>1167699</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>77</v>
@@ -6364,37 +6361,37 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,37 +6412,37 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,37 +6463,37 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,37 +6514,37 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,37 +6565,37 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,37 +6616,37 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,37 +6667,37 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,7 +6753,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B31" s="5">
         <v>994</v>
@@ -6768,10 +6765,10 @@
         <v>723990</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>77</v>
@@ -6783,10 +6780,10 @@
         <v>747261</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>77</v>
@@ -6795,13 +6792,13 @@
         <v>1806</v>
       </c>
       <c r="N31" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>77</v>
@@ -6825,23 +6822,23 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="M32" s="7">
         <v>0</v>
       </c>
@@ -6855,7 +6852,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,23 +6873,23 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="M33" s="7">
         <v>0</v>
       </c>
@@ -6906,7 +6903,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6927,23 +6924,23 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="M34" s="7">
         <v>0</v>
       </c>
@@ -6957,7 +6954,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6978,23 +6975,23 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="M35" s="7">
         <v>0</v>
       </c>
@@ -7008,7 +7005,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,23 +7026,23 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="M36" s="7">
         <v>0</v>
       </c>
@@ -7059,7 +7056,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,23 +7077,23 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="M37" s="7">
         <v>0</v>
       </c>
@@ -7110,7 +7107,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,23 +7128,23 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="M38" s="7">
         <v>0</v>
       </c>
@@ -7161,7 +7158,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,7 +7200,7 @@
         <v>1806</v>
       </c>
       <c r="N39" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>77</v>
@@ -7217,7 +7214,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B40" s="5">
         <v>994</v>
@@ -7229,10 +7226,10 @@
         <v>600157</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>77</v>
@@ -7244,10 +7241,10 @@
         <v>597063</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>77</v>
@@ -7259,10 +7256,10 @@
         <v>1197220</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>77</v>
@@ -7286,7 +7283,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -7301,7 +7298,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -7316,7 +7313,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,7 +7334,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -7352,7 +7349,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -7367,7 +7364,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,7 +7385,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -7403,7 +7400,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -7418,7 +7415,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,7 +7436,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -7454,7 +7451,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -7469,7 +7466,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,7 +7487,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -7505,7 +7502,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -7520,7 +7517,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,7 +7538,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7556,7 +7553,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -7571,7 +7568,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,7 +7589,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -7607,7 +7604,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -7622,7 +7619,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7684,13 @@
         <v>1028</v>
       </c>
       <c r="D49" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>77</v>
@@ -7705,10 +7702,10 @@
         <v>1026637</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>77</v>
@@ -7720,10 +7717,10 @@
         <v>1724392</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>77</v>
@@ -7747,7 +7744,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -7762,7 +7759,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -7777,7 +7774,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7798,7 +7795,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -7813,7 +7810,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -7828,7 +7825,7 @@
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,7 +7846,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -7864,7 +7861,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -7879,7 +7876,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,7 +7897,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -7915,7 +7912,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -7930,7 +7927,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,7 +7948,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -7966,7 +7963,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -7981,7 +7978,7 @@
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,7 +7999,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -8017,7 +8014,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -8032,7 +8029,7 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,7 +8050,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -8068,7 +8065,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -8083,7 +8080,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,7 +8092,7 @@
         <v>1028</v>
       </c>
       <c r="D57" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>77</v>
@@ -8151,10 +8148,10 @@
         <v>3385228</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>77</v>
@@ -8166,10 +8163,10 @@
         <v>3835581</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>77</v>
@@ -8178,13 +8175,13 @@
         <v>8743</v>
       </c>
       <c r="N58" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>77</v>
@@ -8208,37 +8205,37 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L59" s="7" t="s">
+      <c r="M59" s="7">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q59" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="M59" s="7">
-        <v>0</v>
-      </c>
-      <c r="N59" s="7">
-        <v>0</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,37 +8256,37 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>0</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L60" s="7" t="s">
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q60" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="M60" s="7">
-        <v>0</v>
-      </c>
-      <c r="N60" s="7">
-        <v>0</v>
-      </c>
-      <c r="O60" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,37 +8307,37 @@
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" s="7" t="s">
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="M61" s="7">
-        <v>0</v>
-      </c>
-      <c r="N61" s="7">
-        <v>0</v>
-      </c>
-      <c r="O61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,37 +8358,37 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="7">
-        <v>0</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L62" s="7" t="s">
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="M62" s="7">
-        <v>0</v>
-      </c>
-      <c r="N62" s="7">
-        <v>0</v>
-      </c>
-      <c r="O62" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8412,37 +8409,37 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7">
-        <v>0</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L63" s="7" t="s">
+      <c r="M63" s="7">
+        <v>0</v>
+      </c>
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q63" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="M63" s="7">
-        <v>0</v>
-      </c>
-      <c r="N63" s="7">
-        <v>0</v>
-      </c>
-      <c r="O63" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -8463,37 +8460,37 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L64" s="7" t="s">
+      <c r="M64" s="7">
+        <v>0</v>
+      </c>
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="M64" s="7">
-        <v>0</v>
-      </c>
-      <c r="N64" s="7">
-        <v>0</v>
-      </c>
-      <c r="O64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -8514,37 +8511,37 @@
         <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L65" s="7" t="s">
+      <c r="M65" s="7">
+        <v>0</v>
+      </c>
+      <c r="N65" s="7">
+        <v>0</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q65" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="M65" s="7">
-        <v>0</v>
-      </c>
-      <c r="N65" s="7">
-        <v>0</v>
-      </c>
-      <c r="O65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -8586,7 +8583,7 @@
         <v>8743</v>
       </c>
       <c r="N66" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>77</v>
@@ -8600,7 +8597,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34E1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34E1-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD37421-0CBA-4063-B56E-9759400E5C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CBEA129-0F1C-4D34-A0BB-3D3C0E8F93DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F278D432-D0DE-40B0-896F-2876A3A0D125}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7EA8F9A-8222-41DB-9B03-6FC63670C0A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="483">
-  <si>
-    <t>Población según el número de días que realizo actividades físicas moderadas a lo largo de los últimos 7 días en 2015 (Tasa respuesta: 26,03%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="480">
+  <si>
+    <t>Población según el número de días que realizo actividades físicas moderadas a lo largo de los últimos 7 días en 2016 (Tasa respuesta: 26,03%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -87,1294 +87,1285 @@
     <t>9,15%</t>
   </si>
   <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>35/44</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
   </si>
   <si>
     <t>28,31%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>7,98%</t>
   </si>
   <si>
     <t>12,4%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>11,16%</t>
+    <t>11,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1897,7 +1888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11729013-0EBD-4693-AD9F-D9FF75F699AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E933B653-1A7A-4767-AE3C-D27BD53D69CA}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2138,13 +2129,13 @@
         <v>6700</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -2153,13 +2144,13 @@
         <v>10869</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2165,13 @@
         <v>47319</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2189,13 +2180,13 @@
         <v>20989</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -2204,13 +2195,13 @@
         <v>68309</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2216,13 @@
         <v>24321</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -2240,13 +2231,13 @@
         <v>17198</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2255,13 +2246,13 @@
         <v>41519</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2267,13 @@
         <v>59902</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -2291,13 +2282,13 @@
         <v>33878</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>91</v>
@@ -2306,13 +2297,13 @@
         <v>93780</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,13 +2318,13 @@
         <v>50905</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -2342,13 +2333,13 @@
         <v>21929</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -2357,13 +2348,13 @@
         <v>72835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2369,13 @@
         <v>21206</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2393,13 +2384,13 @@
         <v>8057</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -2408,13 +2399,13 @@
         <v>29263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2420,13 @@
         <v>228752</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>115</v>
@@ -2444,13 +2435,13 @@
         <v>112539</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>331</v>
@@ -2459,18 +2450,18 @@
         <v>341292</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="5">
         <v>994</v>
@@ -2488,7 +2479,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2503,7 +2494,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2518,7 +2509,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2524,13 @@
         <v>20730</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -2548,13 +2539,13 @@
         <v>10836</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -2563,13 +2554,13 @@
         <v>31566</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2575,13 @@
         <v>12363</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -2599,13 +2590,13 @@
         <v>2783</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -2614,13 +2605,13 @@
         <v>15145</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2626,13 @@
         <v>54236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2650,13 +2641,13 @@
         <v>20507</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -2665,13 +2656,13 @@
         <v>74744</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2677,13 @@
         <v>28811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -2701,13 +2692,13 @@
         <v>19405</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -2716,13 +2707,13 @@
         <v>48216</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,13 +2728,13 @@
         <v>82222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -2752,13 +2743,13 @@
         <v>44030</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>124</v>
@@ -2767,13 +2758,13 @@
         <v>126252</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,13 +2779,13 @@
         <v>68157</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -2803,10 +2794,10 @@
         <v>39163</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>131</v>
@@ -2824,7 +2815,7 @@
         <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2830,13 @@
         <v>19524</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2854,13 +2845,13 @@
         <v>20985</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -2869,13 +2860,13 @@
         <v>40508</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2881,13 @@
         <v>286043</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" s="7">
         <v>160</v>
@@ -2905,13 +2896,13 @@
         <v>157708</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M21" s="7">
         <v>431</v>
@@ -2920,18 +2911,18 @@
         <v>443751</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5">
         <v>994</v>
@@ -2949,7 +2940,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3000,7 +2991,7 @@
         <v>148</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -3009,13 +3000,13 @@
         <v>19918</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
@@ -3024,13 +3015,13 @@
         <v>38657</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3036,13 @@
         <v>8334</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -3150,10 +3141,10 @@
         <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -3162,10 +3153,10 @@
         <v>20446</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>177</v>
@@ -3180,10 +3171,10 @@
         <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3189,13 @@
         <v>72465</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H27" s="7">
         <v>38</v>
@@ -3213,13 +3204,13 @@
         <v>38552</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M27" s="7">
         <v>105</v>
@@ -3228,13 +3219,13 @@
         <v>111018</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3240,13 @@
         <v>50778</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>44</v>
@@ -3264,13 +3255,13 @@
         <v>46594</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>92</v>
@@ -3279,13 +3270,13 @@
         <v>97372</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3291,13 @@
         <v>24753</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -3315,13 +3306,13 @@
         <v>21567</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -3330,13 +3321,13 @@
         <v>46320</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3342,13 @@
         <v>238634</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" s="7">
         <v>181</v>
@@ -3366,13 +3357,13 @@
         <v>183596</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M30" s="7">
         <v>406</v>
@@ -3381,18 +3372,18 @@
         <v>422230</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B31" s="5">
         <v>994</v>
@@ -3410,7 +3401,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3425,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3440,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3446,13 @@
         <v>21224</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>209</v>
+        <v>88</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -3470,13 +3461,13 @@
         <v>10951</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>30</v>
@@ -3485,13 +3476,13 @@
         <v>32175</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3497,13 @@
         <v>7898</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -3521,13 +3512,13 @@
         <v>2786</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -3536,13 +3527,13 @@
         <v>10684</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3548,13 @@
         <v>40492</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>26</v>
@@ -3572,13 +3563,13 @@
         <v>27747</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>64</v>
@@ -3587,13 +3578,13 @@
         <v>68239</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3599,13 @@
         <v>16656</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -3623,13 +3614,13 @@
         <v>9465</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>25</v>
@@ -3638,13 +3629,13 @@
         <v>26121</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3650,13 @@
         <v>39125</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -3674,13 +3665,13 @@
         <v>29135</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>245</v>
+        <v>50</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>63</v>
@@ -3689,13 +3680,13 @@
         <v>68260</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3701,13 @@
         <v>31834</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H37" s="7">
         <v>37</v>
@@ -3725,13 +3716,13 @@
         <v>39102</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M37" s="7">
         <v>64</v>
@@ -3740,13 +3731,13 @@
         <v>70935</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3752,13 @@
         <v>24226</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H38" s="7">
         <v>12</v>
@@ -3776,13 +3767,13 @@
         <v>13458</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M38" s="7">
         <v>32</v>
@@ -3791,13 +3782,13 @@
         <v>37683</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3803,13 @@
         <v>181454</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" s="7">
         <v>126</v>
@@ -3827,13 +3818,13 @@
         <v>132644</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M39" s="7">
         <v>288</v>
@@ -3842,18 +3833,18 @@
         <v>314097</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B40" s="5">
         <v>994</v>
@@ -3871,7 +3862,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3886,7 +3877,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3901,7 +3892,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3907,13 @@
         <v>13398</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -3931,13 +3922,13 @@
         <v>12089</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M41" s="7">
         <v>22</v>
@@ -3946,13 +3937,13 @@
         <v>25487</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3958,13 @@
         <v>4451</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3982,13 +3973,13 @@
         <v>3932</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="M42" s="7">
         <v>7</v>
@@ -3997,13 +3988,13 @@
         <v>8383</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4009,13 @@
         <v>7703</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
@@ -4033,13 +4024,13 @@
         <v>6023</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M43" s="7">
         <v>12</v>
@@ -4048,13 +4039,13 @@
         <v>13726</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4060,13 @@
         <v>7487</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -4084,7 +4075,7 @@
         <v>5513</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>298</v>
@@ -4273,13 +4264,13 @@
         <v>89233</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H48" s="7">
         <v>59</v>
@@ -4288,13 +4279,13 @@
         <v>70839</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M48" s="7">
         <v>138</v>
@@ -4303,13 +4294,13 @@
         <v>160072</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,7 +4404,7 @@
         <v>340</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>341</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4419,13 @@
         <v>2652</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4458,13 +4449,13 @@
         <v>2652</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="Q51" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4470,13 @@
         <v>17502</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H52" s="7">
         <v>10</v>
@@ -4494,13 +4485,13 @@
         <v>10854</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M52" s="7">
         <v>27</v>
@@ -4509,13 +4500,13 @@
         <v>28356</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4521,13 @@
         <v>1788</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H53" s="7">
         <v>3</v>
@@ -4548,10 +4539,10 @@
         <v>325</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="M53" s="7">
         <v>5</v>
@@ -4560,13 +4551,13 @@
         <v>4959</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4572,13 @@
         <v>9812</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>363</v>
+        <v>211</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H54" s="7">
         <v>17</v>
@@ -4596,13 +4587,13 @@
         <v>18930</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M54" s="7">
         <v>27</v>
@@ -4611,13 +4602,13 @@
         <v>28742</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4623,13 @@
         <v>11484</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H55" s="7">
         <v>21</v>
@@ -4647,13 +4638,13 @@
         <v>25384</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M55" s="7">
         <v>33</v>
@@ -4662,13 +4653,13 @@
         <v>36868</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4674,13 @@
         <v>3221</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -4713,13 +4704,13 @@
         <v>3221</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4725,13 @@
         <v>56490</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H57" s="7">
         <v>58</v>
@@ -4749,13 +4740,13 @@
         <v>66581</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M57" s="7">
         <v>116</v>
@@ -4764,13 +4755,13 @@
         <v>123071</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,7 +4784,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4808,7 +4799,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -4823,7 +4814,7 @@
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4829,13 @@
         <v>105051</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H59" s="7">
         <v>63</v>
@@ -4853,13 +4844,13 @@
         <v>65824</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M59" s="7">
         <v>161</v>
@@ -4868,13 +4859,13 @@
         <v>170875</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4880,13 @@
         <v>39866</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H60" s="7">
         <v>24</v>
@@ -4904,13 +4895,13 @@
         <v>23771</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>72</v>
+        <v>397</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M60" s="7">
         <v>60</v>
@@ -4919,13 +4910,13 @@
         <v>63637</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4931,13 @@
         <v>215632</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H61" s="7">
         <v>111</v>
@@ -4955,13 +4946,13 @@
         <v>115071</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M61" s="7">
         <v>316</v>
@@ -4970,13 +4961,13 @@
         <v>330702</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,13 +4982,13 @@
         <v>94247</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H62" s="7">
         <v>75</v>
@@ -5006,13 +4997,13 @@
         <v>75198</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>277</v>
+        <v>415</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M62" s="7">
         <v>166</v>
@@ -5021,13 +5012,13 @@
         <v>169446</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>324</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5033,13 @@
         <v>286151</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H63" s="7">
         <v>177</v>
@@ -5057,13 +5048,13 @@
         <v>182012</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>226</v>
+        <v>424</v>
       </c>
       <c r="M63" s="7">
         <v>445</v>
@@ -5072,13 +5063,13 @@
         <v>468163</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5084,13 @@
         <v>235624</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H64" s="7">
         <v>179</v>
@@ -5108,13 +5099,13 @@
         <v>190321</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M64" s="7">
         <v>397</v>
@@ -5123,13 +5114,13 @@
         <v>425945</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>437</v>
+        <v>245</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5135,13 @@
         <v>104034</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H65" s="7">
         <v>70</v>
@@ -5159,13 +5150,13 @@
         <v>71711</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M65" s="7">
         <v>165</v>
@@ -5174,13 +5165,13 @@
         <v>175745</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>271</v>
+        <v>116</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5186,13 @@
         <v>1080606</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H66" s="7">
         <v>699</v>
@@ -5210,13 +5201,13 @@
         <v>723907</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M66" s="7">
         <v>1710</v>
@@ -5225,18 +5216,18 @@
         <v>1804513</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -5258,7 +5249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D714915-7A76-4588-A6B9-A1BB9586E0A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA8750A-4544-41F7-9A3F-5DEAE0770AF3}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5275,7 +5266,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5382,13 +5373,13 @@
         <v>377679</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" s="7">
         <v>207</v>
@@ -5397,13 +5388,13 @@
         <v>354957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>379</v>
@@ -5412,13 +5403,13 @@
         <v>732636</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>451</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,7 +5430,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5454,7 +5445,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5469,7 +5460,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,7 +5481,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5505,7 +5496,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5520,7 +5511,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,7 +5532,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5556,7 +5547,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5571,7 +5562,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +5583,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5607,7 +5598,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5622,7 +5613,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,7 +5634,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5658,7 +5649,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5673,7 +5664,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,7 +5685,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5709,7 +5700,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5724,7 +5715,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,7 +5736,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5760,7 +5751,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5775,7 +5766,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5781,13 @@
         <v>377679</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>207</v>
@@ -5805,13 +5796,13 @@
         <v>354957</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>379</v>
@@ -5820,18 +5811,18 @@
         <v>732636</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="5">
         <v>994</v>
@@ -5843,13 +5834,13 @@
         <v>428396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>461</v>
@@ -5858,13 +5849,13 @@
         <v>499215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>763</v>
@@ -5873,13 +5864,13 @@
         <v>927611</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,7 +5891,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5915,7 +5906,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5930,7 +5921,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,7 +5942,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5966,7 +5957,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -5981,7 +5972,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,7 +5993,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6017,7 +6008,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6032,7 +6023,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,7 +6044,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6068,7 +6059,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6083,7 +6074,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,7 +6095,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6119,7 +6110,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6134,7 +6125,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,7 +6146,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6170,7 +6161,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6185,7 +6176,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,7 +6197,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6221,7 +6212,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6236,7 +6227,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6242,13 @@
         <v>428396</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" s="7">
         <v>461</v>
@@ -6266,13 +6257,13 @@
         <v>499215</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M21" s="7">
         <v>763</v>
@@ -6281,18 +6272,18 @@
         <v>927611</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5">
         <v>994</v>
@@ -6304,13 +6295,13 @@
         <v>557252</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>848</v>
@@ -6319,13 +6310,13 @@
         <v>610447</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>1394</v>
@@ -6334,13 +6325,13 @@
         <v>1167699</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,7 +6352,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6376,7 +6367,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6391,7 +6382,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,7 +6403,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6427,7 +6418,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6442,7 +6433,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,7 +6454,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6478,7 +6469,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6493,7 +6484,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,7 +6505,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6529,7 +6520,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6544,7 +6535,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,7 +6556,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6580,7 +6571,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -6595,7 +6586,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,7 +6607,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6631,7 +6622,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6646,7 +6637,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,7 +6658,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6682,7 +6673,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6697,7 +6688,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6703,13 @@
         <v>557252</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" s="7">
         <v>848</v>
@@ -6727,13 +6718,13 @@
         <v>610447</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M30" s="7">
         <v>1394</v>
@@ -6742,18 +6733,18 @@
         <v>1167699</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B31" s="5">
         <v>994</v>
@@ -6765,13 +6756,13 @@
         <v>723990</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" s="7">
         <v>1141</v>
@@ -6780,13 +6771,13 @@
         <v>747261</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M31" s="7">
         <v>1806</v>
@@ -6795,13 +6786,13 @@
         <v>1471251</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,7 +6813,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6837,7 +6828,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6852,7 +6843,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6873,7 +6864,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6888,7 +6879,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6903,7 +6894,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,7 +6915,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6939,7 +6930,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6954,7 +6945,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,7 +6966,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6990,7 +6981,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -7005,7 +6996,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,7 +7017,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7041,7 +7032,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7056,7 +7047,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,7 +7068,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7092,7 +7083,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7107,7 +7098,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,7 +7119,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7143,7 +7134,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7158,7 +7149,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7164,13 @@
         <v>723990</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" s="7">
         <v>1141</v>
@@ -7188,13 +7179,13 @@
         <v>747261</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M39" s="7">
         <v>1806</v>
@@ -7203,18 +7194,18 @@
         <v>1471251</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B40" s="5">
         <v>994</v>
@@ -7226,13 +7217,13 @@
         <v>600157</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" s="7">
         <v>1002</v>
@@ -7241,13 +7232,13 @@
         <v>597063</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M40" s="7">
         <v>1665</v>
@@ -7256,13 +7247,13 @@
         <v>1197220</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,7 +7274,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -7298,7 +7289,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -7313,7 +7304,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,7 +7325,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -7349,7 +7340,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -7364,7 +7355,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,7 +7376,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -7400,7 +7391,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -7415,7 +7406,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,7 +7427,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -7451,7 +7442,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -7466,7 +7457,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,7 +7478,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -7502,7 +7493,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -7517,7 +7508,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,7 +7529,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7553,7 +7544,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -7568,7 +7559,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,7 +7580,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -7604,7 +7595,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -7619,7 +7610,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,13 +7625,13 @@
         <v>600157</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H48" s="7">
         <v>1002</v>
@@ -7649,13 +7640,13 @@
         <v>597063</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M48" s="7">
         <v>1665</v>
@@ -7664,13 +7655,13 @@
         <v>1197220</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7678,13 @@
         <v>697755</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H49" s="7">
         <v>1708</v>
@@ -7702,13 +7693,13 @@
         <v>1026637</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M49" s="7">
         <v>2736</v>
@@ -7717,13 +7708,13 @@
         <v>1724392</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,7 +7735,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -7759,7 +7750,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -7774,7 +7765,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,7 +7786,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -7810,7 +7801,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -7825,7 +7816,7 @@
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,7 +7837,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -7861,7 +7852,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -7876,7 +7867,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,7 +7888,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -7912,7 +7903,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -7927,7 +7918,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,7 +7939,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -7963,7 +7954,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -7978,7 +7969,7 @@
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,7 +7990,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -8014,7 +8005,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -8029,7 +8020,7 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,7 +8041,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -8065,7 +8056,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -8080,7 +8071,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,13 +8086,13 @@
         <v>697755</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H57" s="7">
         <v>1708</v>
@@ -8110,13 +8101,13 @@
         <v>1026637</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M57" s="7">
         <v>2736</v>
@@ -8125,13 +8116,13 @@
         <v>1724392</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8139,13 @@
         <v>3385228</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H58" s="7">
         <v>5367</v>
@@ -8163,13 +8154,13 @@
         <v>3835581</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M58" s="7">
         <v>8743</v>
@@ -8178,13 +8169,13 @@
         <v>7220808</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,7 +8196,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -8220,7 +8211,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -8235,7 +8226,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -8256,7 +8247,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -8271,7 +8262,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -8286,7 +8277,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,7 +8298,7 @@
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -8322,7 +8313,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -8337,7 +8328,7 @@
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,7 +8349,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -8373,7 +8364,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -8388,7 +8379,7 @@
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,7 +8400,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -8424,7 +8415,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -8439,7 +8430,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -8460,7 +8451,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -8475,7 +8466,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -8490,7 +8481,7 @@
         <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -8511,7 +8502,7 @@
         <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -8526,7 +8517,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -8541,7 +8532,7 @@
         <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -8556,13 +8547,13 @@
         <v>3385228</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H66" s="7">
         <v>5367</v>
@@ -8571,13 +8562,13 @@
         <v>3835581</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M66" s="7">
         <v>8743</v>
@@ -8586,18 +8577,18 @@
         <v>7220808</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34E1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34E1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A50CF385-A487-4B18-BCC8-AB5BE867339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C101F3-0797-4606-A59B-D6C324294CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{850C2AB9-4799-4938-896C-E66EAAE1DC14}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9E39677E-3E31-4C69-BEDD-0AF39F671D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="466">
   <si>
     <t>Población según el número de días que realizo actividades físicas moderadas a lo largo de los últimos 7 días en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>4,99%</t>
@@ -284,7 +284,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>3,51%</t>
@@ -488,7 +488,7 @@
     <t>64,4%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,8%</t>
@@ -686,7 +686,7 @@
     <t>71,09%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>3,29%</t>
@@ -872,7 +872,7 @@
     <t>78,13%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,43%</t>
@@ -1037,265 +1037,370 @@
     <t>85,86%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
     <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
   </si>
   <si>
     <t>2,53%</t>
@@ -1740,8 +1845,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F094D7A0-A0CB-4356-8ED2-E2874FA7C6E5}">
-  <dimension ref="A1:Q67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D1A513-B4D1-445F-8372-F33AE9F21C20}">
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4163,49 +4268,49 @@
         <v>7</v>
       </c>
       <c r="C49" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D49" s="7">
-        <v>10031</v>
+        <v>5924</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>334</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="H49" s="7">
+        <v>6</v>
+      </c>
+      <c r="I49" s="7">
+        <v>6900</v>
+      </c>
+      <c r="J49" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H49" s="7">
-        <v>7</v>
-      </c>
-      <c r="I49" s="7">
-        <v>8242</v>
-      </c>
-      <c r="J49" s="7" t="s">
+      <c r="K49" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M49" s="7">
+        <v>12</v>
+      </c>
+      <c r="N49" s="7">
+        <v>12824</v>
+      </c>
+      <c r="O49" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="L49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49" s="7">
-        <v>18</v>
-      </c>
-      <c r="N49" s="7">
-        <v>18273</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="P49" s="7" t="s">
-        <v>231</v>
+        <v>339</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,19 +4319,19 @@
         <v>6</v>
       </c>
       <c r="C50" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" s="7">
-        <v>2652</v>
+        <v>1886</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4238,22 +4343,22 @@
         <v>341</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M50" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N50" s="7">
-        <v>2652</v>
+        <v>1886</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>346</v>
@@ -4265,28 +4370,28 @@
         <v>5</v>
       </c>
       <c r="C51" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D51" s="7">
-        <v>17502</v>
+        <v>15131</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>247</v>
+        <v>347</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H51" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I51" s="7">
-        <v>10854</v>
+        <v>6915</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>350</v>
@@ -4295,19 +4400,19 @@
         <v>351</v>
       </c>
       <c r="M51" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N51" s="7">
-        <v>28356</v>
+        <v>22046</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="P51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,19 +4421,19 @@
         <v>4</v>
       </c>
       <c r="C52" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="7">
-        <v>1788</v>
+        <v>960</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>341</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H52" s="7">
         <v>3</v>
@@ -4337,19 +4442,19 @@
         <v>3171</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>229</v>
+        <v>345</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>356</v>
       </c>
       <c r="M52" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" s="7">
-        <v>4959</v>
+        <v>4132</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>357</v>
@@ -4358,7 +4463,7 @@
         <v>358</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>296</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,46 +4472,46 @@
         <v>3</v>
       </c>
       <c r="C53" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D53" s="7">
-        <v>9812</v>
+        <v>8158</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>359</v>
+        <v>70</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="H53" s="7">
+        <v>12</v>
+      </c>
+      <c r="I53" s="7">
+        <v>12469</v>
+      </c>
+      <c r="J53" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H53" s="7">
-        <v>17</v>
-      </c>
-      <c r="I53" s="7">
-        <v>18930</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="K53" s="7" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>362</v>
       </c>
       <c r="M53" s="7">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N53" s="7">
-        <v>28742</v>
+        <v>20627</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>136</v>
+        <v>303</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>242</v>
+        <v>338</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>363</v>
@@ -4418,49 +4523,49 @@
         <v>2</v>
       </c>
       <c r="C54" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D54" s="7">
-        <v>11484</v>
+        <v>9804</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>177</v>
+        <v>364</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="H54" s="7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I54" s="7">
-        <v>25384</v>
+        <v>19638</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>202</v>
+        <v>366</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>66</v>
+        <v>298</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M54" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N54" s="7">
-        <v>36867</v>
+        <v>29442</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>367</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,19 +4574,19 @@
         <v>1</v>
       </c>
       <c r="C55" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" s="7">
-        <v>3221</v>
+        <v>1707</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4493,25 +4598,25 @@
         <v>341</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M55" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N55" s="7">
-        <v>3221</v>
+        <v>1707</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,49 +4625,49 @@
         <v>0</v>
       </c>
       <c r="C56" s="7">
-        <v>569</v>
+        <v>282</v>
       </c>
       <c r="D56" s="7">
-        <v>534838</v>
+        <v>290759</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H56" s="7">
-        <v>597</v>
+        <v>309</v>
       </c>
       <c r="I56" s="7">
-        <v>711350</v>
+        <v>328669</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M56" s="7">
-        <v>1166</v>
+        <v>591</v>
       </c>
       <c r="N56" s="7">
-        <v>1246188</v>
+        <v>619429</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,10 +4676,10 @@
         <v>3</v>
       </c>
       <c r="C57" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D57" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>81</v>
@@ -4586,10 +4691,10 @@
         <v>81</v>
       </c>
       <c r="H57" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I57" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>81</v>
@@ -4601,10 +4706,10 @@
         <v>81</v>
       </c>
       <c r="M57" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N57" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>81</v>
@@ -4618,55 +4723,55 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>382</v>
       </c>
       <c r="B58" s="5">
         <v>7</v>
       </c>
       <c r="C58" s="7">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="D58" s="7">
-        <v>105051</v>
+        <v>4106</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>176</v>
+        <v>383</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="H58" s="7">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="I58" s="7">
-        <v>65824</v>
+        <v>1342</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>382</v>
+        <v>287</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="M58" s="7">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="N58" s="7">
-        <v>170875</v>
+        <v>5448</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="P58" s="7" t="s">
-        <v>385</v>
-      </c>
       <c r="Q58" s="7" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,49 +4780,49 @@
         <v>6</v>
       </c>
       <c r="C59" s="7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D59" s="7">
-        <v>39866</v>
+        <v>767</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="F59" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L59" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="H59" s="7">
-        <v>24</v>
-      </c>
-      <c r="I59" s="7">
-        <v>23771</v>
-      </c>
-      <c r="J59" s="7" t="s">
+      <c r="M59" s="7">
+        <v>1</v>
+      </c>
+      <c r="N59" s="7">
+        <v>767</v>
+      </c>
+      <c r="O59" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K59" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M59" s="7">
-        <v>60</v>
-      </c>
-      <c r="N59" s="7">
-        <v>63637</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>390</v>
-      </c>
       <c r="P59" s="7" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>392</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,49 +4831,49 @@
         <v>5</v>
       </c>
       <c r="C60" s="7">
-        <v>205</v>
+        <v>3</v>
       </c>
       <c r="D60" s="7">
-        <v>215632</v>
+        <v>2370</v>
       </c>
       <c r="E60" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H60" s="7">
+        <v>3</v>
+      </c>
+      <c r="I60" s="7">
+        <v>3940</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="M60" s="7">
+        <v>6</v>
+      </c>
+      <c r="N60" s="7">
+        <v>6310</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P60" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H60" s="7">
-        <v>111</v>
-      </c>
-      <c r="I60" s="7">
-        <v>115071</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="M60" s="7">
-        <v>316</v>
-      </c>
-      <c r="N60" s="7">
-        <v>330702</v>
-      </c>
-      <c r="O60" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="Q60" s="7" t="s">
-        <v>398</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,49 +4882,49 @@
         <v>4</v>
       </c>
       <c r="C61" s="7">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D61" s="7">
-        <v>94247</v>
+        <v>827</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c r="H61" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>75198</v>
+        <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>152</v>
+        <v>343</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="M61" s="7">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="N61" s="7">
-        <v>169446</v>
+        <v>827</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,49 +4933,49 @@
         <v>3</v>
       </c>
       <c r="C62" s="7">
-        <v>268</v>
+        <v>2</v>
       </c>
       <c r="D62" s="7">
-        <v>286151</v>
+        <v>1654</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H62" s="7">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="I62" s="7">
-        <v>182012</v>
+        <v>6461</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>404</v>
+        <v>289</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="M62" s="7">
-        <v>445</v>
+        <v>7</v>
       </c>
       <c r="N62" s="7">
-        <v>468163</v>
+        <v>8116</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>407</v>
+        <v>174</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,49 +4984,49 @@
         <v>2</v>
       </c>
       <c r="C63" s="7">
-        <v>218</v>
+        <v>2</v>
       </c>
       <c r="D63" s="7">
-        <v>235624</v>
+        <v>1679</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>411</v>
+        <v>341</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="H63" s="7">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="I63" s="7">
-        <v>190321</v>
+        <v>5745</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>413</v>
+        <v>359</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>414</v>
+        <v>181</v>
       </c>
       <c r="M63" s="7">
-        <v>397</v>
+        <v>6</v>
       </c>
       <c r="N63" s="7">
-        <v>425945</v>
+        <v>7425</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>415</v>
+        <v>322</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>264</v>
+        <v>402</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>416</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,49 +5035,49 @@
         <v>1</v>
       </c>
       <c r="C64" s="7">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D64" s="7">
-        <v>104034</v>
+        <v>1514</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>417</v>
+        <v>341</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="H64" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>71711</v>
+        <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>419</v>
+        <v>343</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>239</v>
+        <v>387</v>
       </c>
       <c r="M64" s="7">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="N64" s="7">
-        <v>175745</v>
+        <v>1514</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>84</v>
+        <v>341</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>157</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,49 +5086,49 @@
         <v>0</v>
       </c>
       <c r="C65" s="7">
-        <v>2220</v>
+        <v>287</v>
       </c>
       <c r="D65" s="7">
-        <v>2313744</v>
+        <v>244079</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="H65" s="7">
-        <v>2639</v>
+        <v>288</v>
       </c>
       <c r="I65" s="7">
-        <v>2820635</v>
+        <v>382681</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="M65" s="7">
-        <v>4859</v>
+        <v>575</v>
       </c>
       <c r="N65" s="7">
-        <v>5134379</v>
+        <v>626760</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,63 +5137,525 @@
         <v>3</v>
       </c>
       <c r="C66" s="7">
+        <v>302</v>
+      </c>
+      <c r="D66" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" s="7">
+        <v>301</v>
+      </c>
+      <c r="I66" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M66" s="7">
+        <v>603</v>
+      </c>
+      <c r="N66" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="5">
+        <v>7</v>
+      </c>
+      <c r="C67" s="7">
+        <v>98</v>
+      </c>
+      <c r="D67" s="7">
+        <v>105051</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H67" s="7">
+        <v>63</v>
+      </c>
+      <c r="I67" s="7">
+        <v>65824</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M67" s="7">
+        <v>161</v>
+      </c>
+      <c r="N67" s="7">
+        <v>170875</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5">
+        <v>6</v>
+      </c>
+      <c r="C68" s="7">
+        <v>36</v>
+      </c>
+      <c r="D68" s="7">
+        <v>39866</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H68" s="7">
+        <v>24</v>
+      </c>
+      <c r="I68" s="7">
+        <v>23771</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M68" s="7">
+        <v>60</v>
+      </c>
+      <c r="N68" s="7">
+        <v>63637</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5">
+        <v>5</v>
+      </c>
+      <c r="C69" s="7">
+        <v>205</v>
+      </c>
+      <c r="D69" s="7">
+        <v>215632</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H69" s="7">
+        <v>111</v>
+      </c>
+      <c r="I69" s="7">
+        <v>115071</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="M69" s="7">
+        <v>316</v>
+      </c>
+      <c r="N69" s="7">
+        <v>330702</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q69" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5">
+        <v>4</v>
+      </c>
+      <c r="C70" s="7">
+        <v>91</v>
+      </c>
+      <c r="D70" s="7">
+        <v>94247</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="7">
+        <v>75</v>
+      </c>
+      <c r="I70" s="7">
+        <v>75198</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M70" s="7">
+        <v>166</v>
+      </c>
+      <c r="N70" s="7">
+        <v>169446</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q70" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5">
+        <v>3</v>
+      </c>
+      <c r="C71" s="7">
+        <v>268</v>
+      </c>
+      <c r="D71" s="7">
+        <v>286151</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H71" s="7">
+        <v>177</v>
+      </c>
+      <c r="I71" s="7">
+        <v>182012</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M71" s="7">
+        <v>445</v>
+      </c>
+      <c r="N71" s="7">
+        <v>468163</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q71" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5">
+        <v>2</v>
+      </c>
+      <c r="C72" s="7">
+        <v>218</v>
+      </c>
+      <c r="D72" s="7">
+        <v>235624</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H72" s="7">
+        <v>179</v>
+      </c>
+      <c r="I72" s="7">
+        <v>190321</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="M72" s="7">
+        <v>397</v>
+      </c>
+      <c r="N72" s="7">
+        <v>425945</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q72" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7">
+        <v>95</v>
+      </c>
+      <c r="D73" s="7">
+        <v>104034</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H73" s="7">
+        <v>70</v>
+      </c>
+      <c r="I73" s="7">
+        <v>71711</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M73" s="7">
+        <v>165</v>
+      </c>
+      <c r="N73" s="7">
+        <v>175745</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5">
+        <v>0</v>
+      </c>
+      <c r="C74" s="7">
+        <v>2220</v>
+      </c>
+      <c r="D74" s="7">
+        <v>2313744</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H74" s="7">
+        <v>2639</v>
+      </c>
+      <c r="I74" s="7">
+        <v>2820635</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="M74" s="7">
+        <v>4859</v>
+      </c>
+      <c r="N74" s="7">
+        <v>5134379</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="7">
         <v>3231</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D75" s="7">
         <v>3394350</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H66" s="7">
+      <c r="E75" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H75" s="7">
         <v>3338</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I75" s="7">
         <v>3544542</v>
       </c>
-      <c r="J66" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M66" s="7">
+      <c r="J75" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M75" s="7">
         <v>6569</v>
       </c>
-      <c r="N66" s="7">
+      <c r="N75" s="7">
         <v>6938892</v>
       </c>
-      <c r="O66" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>430</v>
+      <c r="O75" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="A40:A48"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="A58:A66"/>
+    <mergeCell ref="A67:A75"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
